--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N2">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q2">
-        <v>25.974546184004</v>
+        <v>0.315618422532</v>
       </c>
       <c r="R2">
-        <v>233.770915656036</v>
+        <v>2.840565802788</v>
       </c>
       <c r="S2">
-        <v>0.0150746070080027</v>
+        <v>0.0002425636612328911</v>
       </c>
       <c r="T2">
-        <v>0.01507460700800271</v>
+        <v>0.0002425636612328911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.58558</v>
       </c>
       <c r="O3">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P3">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q3">
-        <v>14.29078268231778</v>
+        <v>3.29806348088</v>
       </c>
       <c r="R3">
-        <v>128.61704414086</v>
+        <v>29.68257132792</v>
       </c>
       <c r="S3">
-        <v>0.008293809302638712</v>
+        <v>0.002534675721660817</v>
       </c>
       <c r="T3">
-        <v>0.008293809302638715</v>
+        <v>0.002534675721660818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.098744</v>
       </c>
       <c r="O4">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P4">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q4">
-        <v>82.00669356704977</v>
+        <v>18.925715074784</v>
       </c>
       <c r="R4">
-        <v>738.060242103448</v>
+        <v>170.331435673056</v>
       </c>
       <c r="S4">
-        <v>0.04759346587969586</v>
+        <v>0.01454506585250005</v>
       </c>
       <c r="T4">
-        <v>0.04759346587969587</v>
+        <v>0.01454506585250005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N5">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q5">
-        <v>331.963696184244</v>
+        <v>17.478411999241</v>
       </c>
       <c r="R5">
-        <v>2987.673265658196</v>
+        <v>157.305707993169</v>
       </c>
       <c r="S5">
-        <v>0.1926586984600814</v>
+        <v>0.01343276343966564</v>
       </c>
       <c r="T5">
-        <v>0.1926586984600815</v>
+        <v>0.01343276343966565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.58558</v>
       </c>
       <c r="O6">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P6">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q6">
         <v>182.6411521102733</v>
@@ -818,10 +818,10 @@
         <v>1643.77036899246</v>
       </c>
       <c r="S6">
-        <v>0.1059977553427576</v>
+        <v>0.1403660350123243</v>
       </c>
       <c r="T6">
-        <v>0.1059977553427576</v>
+        <v>0.1403660350123243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.098744</v>
       </c>
       <c r="O7">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P7">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q7">
         <v>1048.073945758925</v>
@@ -880,10 +880,10 @@
         <v>9432.665511830328</v>
       </c>
       <c r="S7">
-        <v>0.6082609773321962</v>
+        <v>0.8054810346196188</v>
       </c>
       <c r="T7">
-        <v>0.6082609773321964</v>
+        <v>0.8054810346196191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N8">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q8">
-        <v>8.096949797792002</v>
+        <v>0.4263171730213334</v>
       </c>
       <c r="R8">
-        <v>72.87254818012801</v>
+        <v>3.836854557192</v>
       </c>
       <c r="S8">
-        <v>0.004699151827353542</v>
+        <v>0.0003276394752401566</v>
       </c>
       <c r="T8">
-        <v>0.004699151827353545</v>
+        <v>0.0003276394752401567</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.58558</v>
       </c>
       <c r="O9">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P9">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q9">
         <v>4.454813151697778</v>
       </c>
       <c r="R9">
-        <v>40.09331836528001</v>
+        <v>40.09331836528</v>
       </c>
       <c r="S9">
-        <v>0.002585398685320708</v>
+        <v>0.003423677805355895</v>
       </c>
       <c r="T9">
-        <v>0.002585398685320709</v>
+        <v>0.003423677805355896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.098744</v>
       </c>
       <c r="O10">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P10">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q10">
         <v>25.56364512363378</v>
@@ -1066,10 +1066,10 @@
         <v>230.072806112704</v>
       </c>
       <c r="S10">
-        <v>0.01483613616195315</v>
+        <v>0.01964654441240122</v>
       </c>
       <c r="T10">
-        <v>0.01483613616195316</v>
+        <v>0.01964654441240122</v>
       </c>
     </row>
   </sheetData>
